--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Epha4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H2">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I2">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J2">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N2">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="O2">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P2">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q2">
-        <v>29.69676231496384</v>
+        <v>9.164744315045999</v>
       </c>
       <c r="R2">
-        <v>29.69676231496384</v>
+        <v>82.482698835414</v>
       </c>
       <c r="S2">
-        <v>0.3197986530727053</v>
+        <v>0.06416155326623736</v>
       </c>
       <c r="T2">
-        <v>0.3197986530727053</v>
+        <v>0.07293716064103771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H3">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I3">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J3">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.97705345708693</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
-        <v>5.97705345708693</v>
+        <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658686735966679</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P3">
-        <v>0.3658686735966679</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q3">
-        <v>24.11105554291199</v>
+        <v>7.46348173739</v>
       </c>
       <c r="R3">
-        <v>24.11105554291199</v>
+        <v>67.17133563650999</v>
       </c>
       <c r="S3">
-        <v>0.2596472640688888</v>
+        <v>0.05225116649015152</v>
       </c>
       <c r="T3">
-        <v>0.2596472640688888</v>
+        <v>0.05939774724841664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H4">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I4">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J4">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.99782324033289</v>
+        <v>0.021228</v>
       </c>
       <c r="N4">
-        <v>2.99782324033289</v>
+        <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.1835033968647853</v>
+        <v>0.001234163109255392</v>
       </c>
       <c r="P4">
-        <v>0.1835033968647853</v>
+        <v>0.001314433755709007</v>
       </c>
       <c r="Q4">
-        <v>12.09302931192564</v>
+        <v>0.025176959928</v>
       </c>
       <c r="R4">
-        <v>12.09302931192564</v>
+        <v>0.226592639352</v>
       </c>
       <c r="S4">
-        <v>0.1302274788243115</v>
+        <v>0.0001762616391654552</v>
       </c>
       <c r="T4">
-        <v>0.1302274788243115</v>
+        <v>0.0002003695801645818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.507537865534903</v>
+        <v>1.186026</v>
       </c>
       <c r="H5">
-        <v>0.507537865534903</v>
+        <v>3.558078</v>
       </c>
       <c r="I5">
-        <v>0.08928898585910881</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J5">
-        <v>0.08928898585910881</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>7.36173227849925</v>
+        <v>0.007773333333333333</v>
       </c>
       <c r="N5">
-        <v>7.36173227849925</v>
+        <v>0.02332</v>
       </c>
       <c r="O5">
-        <v>0.4506279295385468</v>
+        <v>0.0004519295852621654</v>
       </c>
       <c r="P5">
-        <v>0.4506279295385468</v>
+        <v>0.0004813233336965963</v>
       </c>
       <c r="Q5">
-        <v>3.736357887268908</v>
+        <v>0.00921937544</v>
       </c>
       <c r="R5">
-        <v>3.736357887268908</v>
+        <v>0.08297437896</v>
       </c>
       <c r="S5">
-        <v>0.04023611082828678</v>
+        <v>6.454402087397804E-05</v>
       </c>
       <c r="T5">
-        <v>0.04023611082828678</v>
+        <v>7.337193972486101E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.507537865534903</v>
+        <v>1.186026</v>
       </c>
       <c r="H6">
-        <v>0.507537865534903</v>
+        <v>3.558078</v>
       </c>
       <c r="I6">
-        <v>0.08928898585910881</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J6">
-        <v>0.08928898585910881</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.97705345708693</v>
+        <v>3.151199</v>
       </c>
       <c r="N6">
-        <v>5.97705345708693</v>
+        <v>6.302398</v>
       </c>
       <c r="O6">
-        <v>0.3658686735966679</v>
+        <v>0.183205839255817</v>
       </c>
       <c r="P6">
-        <v>0.3658686735966679</v>
+        <v>0.1300810984409417</v>
       </c>
       <c r="Q6">
-        <v>3.033580953797913</v>
+        <v>3.737403945174</v>
       </c>
       <c r="R6">
-        <v>3.033580953797913</v>
+        <v>22.424423671044</v>
       </c>
       <c r="S6">
-        <v>0.03266804282306378</v>
+        <v>0.02616522993577084</v>
       </c>
       <c r="T6">
-        <v>0.03266804282306378</v>
+        <v>0.01982929529065543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H7">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I7">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J7">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99782324033289</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N7">
-        <v>2.99782324033289</v>
+        <v>23.181813</v>
       </c>
       <c r="O7">
-        <v>0.1835033968647853</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P7">
-        <v>0.1835033968647853</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q7">
-        <v>1.521508808649481</v>
+        <v>33.946277563522</v>
       </c>
       <c r="R7">
-        <v>1.521508808649481</v>
+        <v>305.516498071698</v>
       </c>
       <c r="S7">
-        <v>0.01638483220775824</v>
+        <v>0.2376548457011114</v>
       </c>
       <c r="T7">
-        <v>0.01638483220775824</v>
+        <v>0.2701597572941598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.142741208661</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H8">
-        <v>1.142741208661</v>
+        <v>13.179146</v>
       </c>
       <c r="I8">
-        <v>0.2010376181749855</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J8">
-        <v>0.2010376181749855</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.36173227849925</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N8">
-        <v>7.36173227849925</v>
+        <v>18.878545</v>
       </c>
       <c r="O8">
-        <v>0.4506279295385468</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P8">
-        <v>0.4506279295385468</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q8">
-        <v>8.41255484177093</v>
+        <v>27.64478898028555</v>
       </c>
       <c r="R8">
-        <v>8.41255484177093</v>
+        <v>248.80310082257</v>
       </c>
       <c r="S8">
-        <v>0.09059316563755462</v>
+        <v>0.193538689102379</v>
       </c>
       <c r="T8">
-        <v>0.09059316563755462</v>
+        <v>0.2200096746215179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.142741208661</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H9">
-        <v>1.142741208661</v>
+        <v>13.179146</v>
       </c>
       <c r="I9">
-        <v>0.2010376181749855</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J9">
-        <v>0.2010376181749855</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.97705345708693</v>
+        <v>0.021228</v>
       </c>
       <c r="N9">
-        <v>5.97705345708693</v>
+        <v>0.063684</v>
       </c>
       <c r="O9">
-        <v>0.3658686735966679</v>
+        <v>0.001234163109255392</v>
       </c>
       <c r="P9">
-        <v>0.3658686735966679</v>
+        <v>0.001314433755709007</v>
       </c>
       <c r="Q9">
-        <v>6.830225291782927</v>
+        <v>0.09325563709600002</v>
       </c>
       <c r="R9">
-        <v>6.830225291782927</v>
+        <v>0.8393007338640002</v>
       </c>
       <c r="S9">
-        <v>0.07355336670471531</v>
+        <v>0.0006528743542892688</v>
       </c>
       <c r="T9">
-        <v>0.07355336670471531</v>
+        <v>0.0007421703377350717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H10">
+        <v>13.179146</v>
+      </c>
+      <c r="I10">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J10">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.02332</v>
+      </c>
+      <c r="O10">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P10">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q10">
+        <v>0.03414863163555556</v>
+      </c>
+      <c r="R10">
+        <v>0.3073376847200001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002390715084169611</v>
+      </c>
+      <c r="T10">
+        <v>0.0002717701820862677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.393048666666667</v>
+      </c>
+      <c r="H11">
+        <v>13.179146</v>
+      </c>
+      <c r="I11">
+        <v>0.5290016768392695</v>
+      </c>
+      <c r="J11">
+        <v>0.5646312220084034</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.151199</v>
+      </c>
+      <c r="N11">
+        <v>6.302398</v>
+      </c>
+      <c r="O11">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P11">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q11">
+        <v>13.84337056535134</v>
+      </c>
+      <c r="R11">
+        <v>83.06022339210801</v>
+      </c>
+      <c r="S11">
+        <v>0.09691619617307283</v>
+      </c>
+      <c r="T11">
+        <v>0.07344784957290434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.785643</v>
+      </c>
+      <c r="H12">
+        <v>2.356929</v>
+      </c>
+      <c r="I12">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J12">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N12">
+        <v>23.181813</v>
+      </c>
+      <c r="O12">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P12">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q12">
+        <v>6.070876370252999</v>
+      </c>
+      <c r="R12">
+        <v>54.637887332277</v>
+      </c>
+      <c r="S12">
+        <v>0.04250166117163242</v>
+      </c>
+      <c r="T12">
+        <v>0.04831476687484658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.785643</v>
+      </c>
+      <c r="H13">
+        <v>2.356929</v>
+      </c>
+      <c r="I13">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J13">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N13">
+        <v>18.878545</v>
+      </c>
+      <c r="O13">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P13">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q13">
+        <v>4.943932243144999</v>
+      </c>
+      <c r="R13">
+        <v>44.495390188305</v>
+      </c>
+      <c r="S13">
+        <v>0.03461202637616891</v>
+      </c>
+      <c r="T13">
+        <v>0.03934603823313131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.785643</v>
+      </c>
+      <c r="H14">
+        <v>2.356929</v>
+      </c>
+      <c r="I14">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J14">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.021228</v>
+      </c>
+      <c r="N14">
+        <v>0.063684</v>
+      </c>
+      <c r="O14">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P14">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q14">
+        <v>0.016677629604</v>
+      </c>
+      <c r="R14">
+        <v>0.150098666436</v>
+      </c>
+      <c r="S14">
+        <v>0.0001167585895915147</v>
+      </c>
+      <c r="T14">
+        <v>0.0001327280835911207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.785643</v>
+      </c>
+      <c r="H15">
+        <v>2.356929</v>
+      </c>
+      <c r="I15">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J15">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.02332</v>
+      </c>
+      <c r="O15">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P15">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q15">
+        <v>0.00610706492</v>
+      </c>
+      <c r="R15">
+        <v>0.05496358428000001</v>
+      </c>
+      <c r="S15">
+        <v>4.275501396385469E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.860277164350442E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.785643</v>
+      </c>
+      <c r="H16">
+        <v>2.356929</v>
+      </c>
+      <c r="I16">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J16">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.151199</v>
+      </c>
+      <c r="N16">
+        <v>6.302398</v>
+      </c>
+      <c r="O16">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P16">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q16">
+        <v>2.475717435957</v>
+      </c>
+      <c r="R16">
+        <v>14.854304615742</v>
+      </c>
+      <c r="S16">
+        <v>0.01733227580375878</v>
+      </c>
+      <c r="T16">
+        <v>0.01313524917669292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.102837</v>
+      </c>
+      <c r="I17">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J17">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N17">
+        <v>23.181813</v>
+      </c>
+      <c r="O17">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P17">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q17">
+        <v>2.840640122609</v>
+      </c>
+      <c r="R17">
+        <v>25.565761103481</v>
+      </c>
+      <c r="S17">
+        <v>0.01988706681513936</v>
+      </c>
+      <c r="T17">
+        <v>0.02260709277027656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.102837</v>
+      </c>
+      <c r="I18">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J18">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N18">
+        <v>18.878545</v>
+      </c>
+      <c r="O18">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P18">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q18">
+        <v>2.313328659129445</v>
+      </c>
+      <c r="R18">
+        <v>20.819957932165</v>
+      </c>
+      <c r="S18">
+        <v>0.01619540653647819</v>
+      </c>
+      <c r="T18">
+        <v>0.01841051078200142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.142741208661</v>
-      </c>
-      <c r="H10">
-        <v>1.142741208661</v>
-      </c>
-      <c r="I10">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="J10">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="N10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="O10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="P10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="Q10">
-        <v>3.425736153010042</v>
-      </c>
-      <c r="R10">
-        <v>3.425736153010042</v>
-      </c>
-      <c r="S10">
-        <v>0.03689108583271553</v>
-      </c>
-      <c r="T10">
-        <v>0.03689108583271553</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.102837</v>
+      </c>
+      <c r="I19">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J19">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.021228</v>
+      </c>
+      <c r="N19">
+        <v>0.063684</v>
+      </c>
+      <c r="O19">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P19">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q19">
+        <v>0.007803674612000001</v>
+      </c>
+      <c r="R19">
+        <v>0.07023307150800001</v>
+      </c>
+      <c r="S19">
+        <v>5.46328263046266E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.210515527764342E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.102837</v>
+      </c>
+      <c r="I20">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J20">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.02332</v>
+      </c>
+      <c r="O20">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P20">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q20">
+        <v>0.002857573204444445</v>
+      </c>
+      <c r="R20">
+        <v>0.02571815884</v>
+      </c>
+      <c r="S20">
+        <v>2.000561380290014E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.274185385771378E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.102837</v>
+      </c>
+      <c r="I21">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J21">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.151199</v>
+      </c>
+      <c r="N21">
+        <v>6.302398</v>
+      </c>
+      <c r="O21">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P21">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q21">
+        <v>1.158419617187667</v>
+      </c>
+      <c r="R21">
+        <v>6.950517703126001</v>
+      </c>
+      <c r="S21">
+        <v>0.008109991879513523</v>
+      </c>
+      <c r="T21">
+        <v>0.006146149840014907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.5720835</v>
+      </c>
+      <c r="H22">
+        <v>3.144167</v>
+      </c>
+      <c r="I22">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J22">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N22">
+        <v>23.181813</v>
+      </c>
+      <c r="O22">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P22">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q22">
+        <v>12.1479152391285</v>
+      </c>
+      <c r="R22">
+        <v>72.88749143477101</v>
+      </c>
+      <c r="S22">
+        <v>0.08504646544360989</v>
+      </c>
+      <c r="T22">
+        <v>0.06445238512512924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.5720835</v>
+      </c>
+      <c r="H23">
+        <v>3.144167</v>
+      </c>
+      <c r="I23">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J23">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N23">
+        <v>18.878545</v>
+      </c>
+      <c r="O23">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P23">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q23">
+        <v>9.892883032835833</v>
+      </c>
+      <c r="R23">
+        <v>59.35729819701501</v>
+      </c>
+      <c r="S23">
+        <v>0.06925918714675743</v>
+      </c>
+      <c r="T23">
+        <v>0.05248801087913543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.5720835</v>
+      </c>
+      <c r="H24">
+        <v>3.144167</v>
+      </c>
+      <c r="I24">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J24">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.021228</v>
+      </c>
+      <c r="N24">
+        <v>0.063684</v>
+      </c>
+      <c r="O24">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P24">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q24">
+        <v>0.033372188538</v>
+      </c>
+      <c r="R24">
+        <v>0.200233131228</v>
+      </c>
+      <c r="S24">
+        <v>0.0002336356999045266</v>
+      </c>
+      <c r="T24">
+        <v>0.000177060598940589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.5720835</v>
+      </c>
+      <c r="H25">
+        <v>3.144167</v>
+      </c>
+      <c r="I25">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J25">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.02332</v>
+      </c>
+      <c r="O25">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P25">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q25">
+        <v>0.01222032907333333</v>
+      </c>
+      <c r="R25">
+        <v>0.07332197444000001</v>
+      </c>
+      <c r="S25">
+        <v>8.555342820447145E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.483658638424933E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.5720835</v>
+      </c>
+      <c r="H26">
+        <v>3.144167</v>
+      </c>
+      <c r="I26">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J26">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.151199</v>
+      </c>
+      <c r="N26">
+        <v>6.302398</v>
+      </c>
+      <c r="O26">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P26">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q26">
+        <v>4.953947953116501</v>
+      </c>
+      <c r="R26">
+        <v>19.815791812466</v>
+      </c>
+      <c r="S26">
+        <v>0.03468214546370097</v>
+      </c>
+      <c r="T26">
+        <v>0.01752255456067411</v>
       </c>
     </row>
   </sheetData>
